--- a/biology/Zoologie/Deinocheiridae/Deinocheiridae.xlsx
+++ b/biology/Zoologie/Deinocheiridae/Deinocheiridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Deinocheiridae (en français deinocheiridés) sont une famille éteinte de dinosaures théropodes du clade des ornithomimosauriens, les « dinosaures-autruches ». Ils ont vécu en Chine et en Mongolie au cours du Crétacé depuis l'Albien jusqu'à l'extinction massive de la fin du Crétacé intervenue il y a environ 66 Ma (millions d'années)[1],[2].
-Cette famille a été érigée par les paléontologues Halszka Osmólska &amp; Ewa Roniewicz (d) en 1970 pour y placer le genre Deinocheirus décrit la même année[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Deinocheiridae (en français deinocheiridés) sont une famille éteinte de dinosaures théropodes du clade des ornithomimosauriens, les « dinosaures-autruches ». Ils ont vécu en Chine et en Mongolie au cours du Crétacé depuis l'Albien jusqu'à l'extinction massive de la fin du Crétacé intervenue il y a environ 66 Ma (millions d'années),.
+Cette famille a été érigée par les paléontologues Halszka Osmólska &amp; Ewa Roniewicz (d) en 1970 pour y placer le genre Deinocheirus décrit la même année.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les deinocheiridés sont des ornithomimosauriens évolués de taille généralement moyenne, de l'ordre de 2 mètres de longueur totale, avec cependant une exception notable, le genre Deinocheirus découvert en Mongolie qui est le plus grand ornithomimosaurien connu avec une taille de 11 mètres de long et un poids de plus de 6 tonnes, ses bras mesuraient jusqu'à 2,40 mètres de long et étaient terminés par des griffes courbées de 25 centimètres de longueur[2].
-Cette morphologie lourde portée par des pieds aplatis, adaptée à une vie en milieu marécageux est très différente de celle des autres deinocheiridés qui ont une morphologie légère, avec des os creux et de fortes et longues pattes arrière adaptées à la course[2].
-Les deinocheiridés sont caractérisés par des museaux terminés par un bec dépourvu de dents, un caractère dérivé que l'on retrouve aussi chez l'autre taxon d'ornithomimosauriens évolués : la famille des ornithomimidés[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les deinocheiridés sont des ornithomimosauriens évolués de taille généralement moyenne, de l'ordre de 2 mètres de longueur totale, avec cependant une exception notable, le genre Deinocheirus découvert en Mongolie qui est le plus grand ornithomimosaurien connu avec une taille de 11 mètres de long et un poids de plus de 6 tonnes, ses bras mesuraient jusqu'à 2,40 mètres de long et étaient terminés par des griffes courbées de 25 centimètres de longueur.
+Cette morphologie lourde portée par des pieds aplatis, adaptée à une vie en milieu marécageux est très différente de celle des autres deinocheiridés qui ont une morphologie légère, avec des os creux et de fortes et longues pattes arrière adaptées à la course.
+Les deinocheiridés sont caractérisés par des museaux terminés par un bec dépourvu de dents, un caractère dérivé que l'on retrouve aussi chez l'autre taxon d'ornithomimosauriens évolués : la famille des ornithomimidés.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cladogramme établi en 2014 par Yuong-Nam Lee, Rinchen Barsbold, Philip J. Currie, Yoshitsugu Kobayashi, Hang-Jae Lee, Pascal Godefroit, François Escuillié et Tsogtbaatar Chinzorig évalue les principaux genres (les mieux documentés) d'ornithomimosauriens[2]. Il montre la place des Deinocheiridae parmi les ornithomimosauriens avec le genre Beishanlong en position  basale, en amont du groupe frère constitué des genres Garudimimus et Deinocheirus :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cladogramme établi en 2014 par Yuong-Nam Lee, Rinchen Barsbold, Philip J. Currie, Yoshitsugu Kobayashi, Hang-Jae Lee, Pascal Godefroit, François Escuillié et Tsogtbaatar Chinzorig évalue les principaux genres (les mieux documentés) d'ornithomimosauriens. Il montre la place des Deinocheiridae parmi les ornithomimosauriens avec le genre Beishanlong en position  basale, en amont du groupe frère constitué des genres Garudimimus et Deinocheirus :
 </t>
         </is>
       </c>
